--- a/docs/project_management/risk_list.xlsx
+++ b/docs/project_management/risk_list.xlsx
@@ -1,37 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26105"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3725\AC\Temp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="366" documentId="8_{F9F74E4E-5B6C-43A3-A8DB-0B2F42ABAFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1EBF548-A196-4157-9519-CF7BC31E88D1}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Risks" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Risks"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Risks!$3:$3</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -83,7 +64,7 @@
     <t>Projekt-management</t>
   </si>
   <si>
-    <t>Rollen mit Backup belegen und Informationen zwischen kontinuerlich austauschen.</t>
+    <t>Rollen mit Backup belegen und Informationen kontinuierlich austauschen.</t>
   </si>
   <si>
     <t>Informationsaustausch</t>
@@ -140,7 +121,7 @@
     <t>Nutzung neuer Tools</t>
   </si>
   <si>
-    <t>Es werden neue Werkzeuge im Laufe der Projektarbeiten genutzt(zb. GitHub, Visual Paradigm), mit denen noch keine oder wenig Erfahrung gesammelt werden konnte.</t>
+    <t>Es werden neue Werkzeuge im Laufe der Projektarbeiten genutzt(zb. GitHub, Visual Studio Code), mit denen noch keine oder wenig Erfahrung gesammelt werden konnte.</t>
   </si>
   <si>
     <t>technisch</t>
@@ -215,38 +196,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0%"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -254,17 +210,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,18 +258,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -308,77 +293,125 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="36">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -389,10 +422,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -419,116 +452,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -540,690 +539,629 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1" cy="1"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
-      <a:lstStyle/>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1" cy="1"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
-      <a:lstStyle/>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" style="28" width="3.4335714285714283" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="29" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="30" width="34.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="31" width="35.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="32" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="28" width="3.4335714285714283" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="33" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="34" width="8.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="30" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="35" width="36.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25">
-      <c r="A1" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="27">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="65.25" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="5"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="73.5" customFormat="1" s="13">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="48">
-      <c r="A4" s="6">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="57" customFormat="1" s="13">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="20">
         <v>44905</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="22">
         <v>3</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="23">
         <v>0.2</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="24">
         <f>+F4*G4</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      </c>
+      <c r="I4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" ht="48">
-      <c r="A5" s="6">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="57" customFormat="1" s="13">
+      <c r="A5" s="19">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="20">
         <v>44905</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="19">
         <v>4</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="23">
         <v>0.6</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="24">
         <f>+F5*G5</f>
-        <v>2.4</v>
-      </c>
-      <c r="I5" s="15" t="s">
+      </c>
+      <c r="I5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" ht="60">
-      <c r="A6" s="6">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="69.75" customFormat="1" s="13">
+      <c r="A6" s="19">
         <v>3</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="20">
         <v>44905</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="19">
         <v>4</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="23">
         <v>0.3</v>
       </c>
-      <c r="H6" s="14">
-        <f t="shared" ref="H6:H15" si="0">+F6*G6</f>
-        <v>1.2</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="H6" s="24">
+        <f>+F6*G6</f>
+      </c>
+      <c r="I6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" ht="48">
-      <c r="A7" s="6">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="57" customFormat="1" s="13">
+      <c r="A7" s="19">
         <v>4</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="20">
         <v>44905</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="19">
         <v>2</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="23">
         <v>0.5</v>
       </c>
-      <c r="H7" s="14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="H7" s="24">
+        <f>+F7*G7</f>
+      </c>
+      <c r="I7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="48">
-      <c r="A8" s="6">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="57" customFormat="1" s="13">
+      <c r="A8" s="19">
         <v>5</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="20">
         <v>44905</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="19">
         <v>3</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="23">
         <v>0.3</v>
       </c>
-      <c r="H8" s="14">
-        <f t="shared" si="0"/>
-        <v>0.89999999999999991</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="24">
+        <f>+F8*G8</f>
+      </c>
+      <c r="I8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="60">
-      <c r="A9" s="6">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="69.75" customFormat="1" s="13">
+      <c r="A9" s="19">
         <v>6</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="20">
         <v>44905</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="19">
         <v>2</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="23">
         <v>0.5</v>
       </c>
-      <c r="H9" s="14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="24">
+        <f>+F9*G9</f>
+      </c>
+      <c r="I9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" ht="48">
-      <c r="A10" s="6">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="57" customFormat="1" s="13">
+      <c r="A10" s="19">
         <v>7</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="20">
         <v>44905</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="19">
         <v>3</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="23">
         <v>0.35</v>
       </c>
-      <c r="H10" s="14">
-        <f t="shared" si="0"/>
-        <v>1.0499999999999998</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="H10" s="24">
+        <f>+F10*G10</f>
+      </c>
+      <c r="I10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" ht="36">
-      <c r="A11" s="6">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="44.25" customFormat="1" s="13">
+      <c r="A11" s="19">
         <v>8</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="20">
         <v>44905</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="19">
         <v>3</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="23">
         <v>0.2</v>
       </c>
-      <c r="H11" s="14">
-        <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="H11" s="24">
+        <f>+F11*G11</f>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" ht="48">
-      <c r="A12" s="6">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="57" customFormat="1" s="13">
+      <c r="A12" s="19">
         <v>9</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="20">
         <v>44905</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="19">
         <v>4</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="23">
         <v>0.15</v>
       </c>
-      <c r="H12" s="14">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="I12" s="4" t="s">
+      <c r="H12" s="24">
+        <f>+F12*G12</f>
+      </c>
+      <c r="I12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" ht="24">
-      <c r="A13" s="6">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="31.5" customFormat="1" s="13">
+      <c r="A13" s="19">
         <v>10</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="20">
         <v>44905</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="19">
         <v>4</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="23">
         <v>0.4</v>
       </c>
-      <c r="H13" s="14">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="I13" s="4" t="s">
+      <c r="H13" s="24">
+        <f>+F13*G13</f>
+      </c>
+      <c r="I13" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" ht="24">
-      <c r="A14" s="6">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="31.5" customFormat="1" s="13">
+      <c r="A14" s="19">
         <v>11</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="20">
         <v>44905</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="19">
         <v>3</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="23">
         <v>0.25</v>
       </c>
-      <c r="H14" s="14">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="I14" s="4" t="s">
+      <c r="H14" s="24">
+        <f>+F14*G14</f>
+      </c>
+      <c r="I14" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" ht="48">
-      <c r="A15" s="6">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="57.75" customFormat="1" s="13">
+      <c r="A15" s="19">
         <v>12</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="20">
         <v>44905</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="19">
         <v>5</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="23">
         <v>0.1</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="24">
         <f>+F15*G15</f>
-        <v>0.5</v>
-      </c>
-      <c r="I15" s="18" t="s">
+      </c>
+      <c r="I15" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="26" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1231,20 +1169,6 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="7"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="83" fitToHeight="4" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;L&amp;"Arial,Bold"&lt;organization&gt;&amp;C&amp;D&amp;RPage &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/project_management/risk_list.xlsx
+++ b/docs/project_management/risk_list.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>I2_Webuserinterface_Datenbankverwaltung Risikoliste</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Rollen mit Backup belegen und Informationen kontinuierlich austauschen.</t>
+  </si>
+  <si>
+    <t>28/11/2022</t>
   </si>
   <si>
     <t>Informationsaustausch</t>
@@ -212,14 +215,20 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -232,20 +241,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -296,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -307,92 +310,77 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -711,16 +699,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="28" width="3.4335714285714283" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="29" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="30" width="34.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="31" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="32" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="28" width="3.4335714285714283" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="33" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="34" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="30" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="35" width="36.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="25" width="3.4335714285714283" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="26" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="27" width="34.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="27" width="35.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="27" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="25" width="3.4335714285714283" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="28" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="29" width="8.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="27" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="30" width="36.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="27">
@@ -730,439 +718,439 @@
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="5"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="73.5" customFormat="1" s="13">
-      <c r="A3" s="14" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="73.5" customFormat="1" s="11">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="57" customFormat="1" s="13">
-      <c r="A4" s="19">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="60" customFormat="1" s="11">
+      <c r="A4" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="20">
-        <v>44905</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="18">
+        <v>44907</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="20">
         <v>3</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="21">
         <v>0.2</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="22">
         <f>+F4*G4</f>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="57" customFormat="1" s="13">
-      <c r="A5" s="19">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="60" customFormat="1" s="11">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="20">
-        <v>44905</v>
-      </c>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="19">
+      <c r="E5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="17">
         <v>4</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="21">
         <v>0.6</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="22">
         <f>+F5*G5</f>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="73.5" customFormat="1" s="11">
+      <c r="A6" s="17">
+        <v>3</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="F6" s="17">
+        <v>4</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="22">
+        <f>+F6*G6</f>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="60" customFormat="1" s="11">
+      <c r="A7" s="17">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="17">
+        <v>2</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="22">
+        <f>+F7*G7</f>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="60" customFormat="1" s="11">
+      <c r="A8" s="17">
+        <v>5</v>
+      </c>
+      <c r="B8" s="18">
+        <v>44958</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="17">
+        <v>3</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="22">
+        <f>+F8*G8</f>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="73.5" customFormat="1" s="11">
+      <c r="A9" s="17">
+        <v>6</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="17">
+        <v>2</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="22">
+        <f>+F9*G9</f>
+      </c>
+      <c r="I9" s="19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="69.75" customFormat="1" s="13">
-      <c r="A6" s="19">
+      <c r="J9" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="73.5" customFormat="1" s="11">
+      <c r="A10" s="17">
+        <v>7</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="17">
         <v>3</v>
       </c>
-      <c r="B6" s="20">
-        <v>44905</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="19">
+      <c r="G10" s="21">
+        <v>0.35</v>
+      </c>
+      <c r="H10" s="22">
+        <f>+F10*G10</f>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="60" customFormat="1" s="11">
+      <c r="A11" s="17">
+        <v>8</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="17">
+        <v>3</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="22">
+        <f>+F11*G11</f>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="60" customFormat="1" s="11">
+      <c r="A12" s="17">
+        <v>9</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="17">
         <v>4</v>
       </c>
-      <c r="G6" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="H6" s="24">
-        <f>+F6*G6</f>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="21" t="s">
+      <c r="G12" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="H12" s="22">
+        <f>+F12*G12</f>
+      </c>
+      <c r="I12" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="57" customFormat="1" s="13">
-      <c r="A7" s="19">
+      <c r="J12" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="33" customFormat="1" s="11">
+      <c r="A13" s="17">
+        <v>10</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="17">
         <v>4</v>
       </c>
-      <c r="B7" s="20">
-        <v>44905</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="19">
-        <v>2</v>
-      </c>
-      <c r="G7" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="24">
-        <f>+F7*G7</f>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="57" customFormat="1" s="13">
-      <c r="A8" s="19">
+      <c r="G13" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="H13" s="22">
+        <f>+F13*G13</f>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="33" customFormat="1" s="11">
+      <c r="A14" s="17">
+        <v>11</v>
+      </c>
+      <c r="B14" s="18">
+        <v>44958</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="17">
+        <v>3</v>
+      </c>
+      <c r="G14" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="H14" s="22">
+        <f>+F14*G14</f>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="60.75" customFormat="1" s="11">
+      <c r="A15" s="17">
+        <v>12</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="17">
         <v>5</v>
       </c>
-      <c r="B8" s="20">
-        <v>44905</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="19">
-        <v>3</v>
-      </c>
-      <c r="G8" s="23">
-        <v>0.3</v>
-      </c>
-      <c r="H8" s="24">
-        <f>+F8*G8</f>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="69.75" customFormat="1" s="13">
-      <c r="A9" s="19">
-        <v>6</v>
-      </c>
-      <c r="B9" s="20">
-        <v>44905</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="19">
-        <v>2</v>
-      </c>
-      <c r="G9" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="24">
-        <f>+F9*G9</f>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="57" customFormat="1" s="13">
-      <c r="A10" s="19">
-        <v>7</v>
-      </c>
-      <c r="B10" s="20">
-        <v>44905</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="19">
-        <v>3</v>
-      </c>
-      <c r="G10" s="23">
-        <v>0.35</v>
-      </c>
-      <c r="H10" s="24">
-        <f>+F10*G10</f>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="44.25" customFormat="1" s="13">
-      <c r="A11" s="19">
-        <v>8</v>
-      </c>
-      <c r="B11" s="20">
-        <v>44905</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="19">
-        <v>3</v>
-      </c>
-      <c r="G11" s="23">
-        <v>0.2</v>
-      </c>
-      <c r="H11" s="24">
-        <f>+F11*G11</f>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="57" customFormat="1" s="13">
-      <c r="A12" s="19">
-        <v>9</v>
-      </c>
-      <c r="B12" s="20">
-        <v>44905</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="19">
-        <v>4</v>
-      </c>
-      <c r="G12" s="23">
-        <v>0.15</v>
-      </c>
-      <c r="H12" s="24">
-        <f>+F12*G12</f>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="31.5" customFormat="1" s="13">
-      <c r="A13" s="19">
-        <v>10</v>
-      </c>
-      <c r="B13" s="20">
-        <v>44905</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="19">
-        <v>4</v>
-      </c>
-      <c r="G13" s="23">
-        <v>0.4</v>
-      </c>
-      <c r="H13" s="24">
-        <f>+F13*G13</f>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="31.5" customFormat="1" s="13">
-      <c r="A14" s="19">
-        <v>11</v>
-      </c>
-      <c r="B14" s="20">
-        <v>44905</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="19">
-        <v>3</v>
-      </c>
-      <c r="G14" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="H14" s="24">
-        <f>+F14*G14</f>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="57.75" customFormat="1" s="13">
-      <c r="A15" s="19">
-        <v>12</v>
-      </c>
-      <c r="B15" s="20">
-        <v>44905</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="19">
-        <v>5</v>
-      </c>
-      <c r="G15" s="23">
+      <c r="G15" s="21">
         <v>0.1</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="22">
         <f>+F15*G15</f>
       </c>
-      <c r="I15" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="26" t="s">
+      <c r="I15" s="23" t="s">
         <v>57</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/docs/project_management/risk_list.xlsx
+++ b/docs/project_management/risk_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s83794\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F790248-0A1D-4888-9BBC-9464130C84A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167888D6-7054-4B0F-8337-CC51FCFCD09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Risks" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,11 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Risks!$18:$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
   <si>
     <t>I2_Webuserinterface_Datenbankverwaltung Risikoliste</t>
   </si>
@@ -297,13 +287,16 @@
   </si>
   <si>
     <t>Interation 5</t>
+  </si>
+  <si>
+    <t>Interation 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,8 +400,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,6 +566,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF95F488"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4F193"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA3F79F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,7 +813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1043,9 +1060,6 @@
     <xf numFmtId="0" fontId="12" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="12" fillId="24" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1057,6 +1071,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1076,11 +1096,14 @@
     <xf numFmtId="14" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1090,16 +1113,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFE8A874"/>
+      <color rgb="FFE3D26F"/>
+      <color rgb="FFBFBFBF"/>
+      <color rgb="FFBFF9CD"/>
+      <color rgb="FFA4F68E"/>
+      <color rgb="FFA3F79F"/>
+      <color rgb="FF93F68E"/>
+      <color rgb="FFD1F58F"/>
+      <color rgb="FF8FF5A7"/>
       <color rgb="FFEEEA96"/>
-      <color rgb="FF95F488"/>
-      <color rgb="FFBBF587"/>
-      <color rgb="FFCDF488"/>
-      <color rgb="FFD1F58F"/>
-      <color rgb="FFBFF9CD"/>
-      <color rgb="FF9CF6B1"/>
-      <color rgb="FF76FC64"/>
-      <color rgb="FFA4F68E"/>
+      <color rgb="FFE8BE6A"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1401,11 +1424,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="B1:S32"/>
+  <dimension ref="B1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
       <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R32" activeCellId="4" sqref="J29:J32 L29:L32 N31:N32 P32 R32"/>
+      <selection pane="topRight" activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,13 +1446,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
       <c r="G1" s="32"/>
       <c r="H1" s="33"/>
       <c r="I1" s="33"/>
@@ -1447,10 +1470,10 @@
     <row r="3" spans="2:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="1"/>
       <c r="C3" s="34"/>
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="94"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="3"/>
       <c r="G3" s="32"/>
       <c r="H3" s="33"/>
@@ -1630,7 +1653,7 @@
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
     </row>
-    <row r="17" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
       <c r="D17" s="32"/>
@@ -1639,28 +1662,32 @@
       <c r="G17" s="32"/>
       <c r="H17" s="33"/>
       <c r="I17" s="33"/>
-      <c r="J17" s="89" t="s">
+      <c r="J17" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89" t="s">
+      <c r="K17" s="90"/>
+      <c r="L17" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89" t="s">
+      <c r="M17" s="90"/>
+      <c r="N17" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89" t="s">
+      <c r="O17" s="90"/>
+      <c r="P17" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="89" t="s">
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="S17" s="89"/>
-    </row>
-    <row r="18" spans="2:19" s="5" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S17" s="90"/>
+      <c r="T17" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="U17" s="90"/>
+    </row>
+    <row r="18" spans="2:21" s="5" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
         <v>1</v>
       </c>
@@ -1715,8 +1742,14 @@
       <c r="S18" s="62" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="2:19" s="5" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T18" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" s="62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" s="5" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="20">
         <v>1</v>
       </c>
@@ -1762,20 +1795,29 @@
         <f>I19*N19</f>
         <v>0.75</v>
       </c>
-      <c r="P19" s="85">
+      <c r="P19" s="84">
         <v>0.6</v>
       </c>
-      <c r="Q19" s="87">
+      <c r="Q19" s="86">
         <f>$I19*P19</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="R19" s="85"/>
-      <c r="S19" s="68">
+      <c r="R19" s="84">
+        <v>0.3</v>
+      </c>
+      <c r="S19" s="69">
         <f>$I19*R19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" s="5" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="T19" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="U19" s="65">
+        <f>$I19*T19</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" s="5" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="20">
         <v>2</v>
       </c>
@@ -1821,20 +1863,29 @@
         <f t="shared" ref="O20:O30" si="2">I20*N20</f>
         <v>2.0999999999999996</v>
       </c>
-      <c r="P20" s="85">
+      <c r="P20" s="84">
         <v>0.25</v>
       </c>
-      <c r="Q20" s="88">
+      <c r="Q20" s="87">
         <f t="shared" ref="Q20:Q30" si="3">$I20*P20</f>
         <v>1.5</v>
       </c>
-      <c r="R20" s="85"/>
-      <c r="S20" s="68">
+      <c r="R20" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="S20" s="97">
         <f t="shared" ref="S20:S30" si="4">$I20*R20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" s="5" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="T20" s="84">
+        <v>0.05</v>
+      </c>
+      <c r="U20" s="65">
+        <f t="shared" ref="U20:U30" si="5">$I20*T20</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" s="5" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="20">
         <v>3</v>
       </c>
@@ -1880,20 +1931,29 @@
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="P21" s="85">
+      <c r="P21" s="84">
         <v>0.4</v>
       </c>
       <c r="Q21" s="70">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="R21" s="85"/>
-      <c r="S21" s="68">
+      <c r="R21" s="84">
+        <v>0.25</v>
+      </c>
+      <c r="S21" s="69">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" s="5" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.25</v>
+      </c>
+      <c r="T21" s="84">
+        <v>0.25</v>
+      </c>
+      <c r="U21" s="69">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" s="5" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="20">
         <v>4</v>
       </c>
@@ -1939,20 +1999,29 @@
         <f t="shared" si="2"/>
         <v>6.4</v>
       </c>
-      <c r="P22" s="85">
+      <c r="P22" s="84">
         <v>0.3</v>
       </c>
       <c r="Q22" s="71">
         <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
-      <c r="R22" s="85"/>
-      <c r="S22" s="68">
+      <c r="R22" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="S22" s="76">
         <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="T22" s="84">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:19" s="5" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U22" s="85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" s="5" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="20">
         <v>5</v>
       </c>
@@ -1998,20 +2067,29 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P23" s="85">
+      <c r="P23" s="84">
         <v>0.6</v>
       </c>
       <c r="Q23" s="71">
         <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
-      <c r="R23" s="85"/>
+      <c r="R23" s="84">
+        <v>0.2</v>
+      </c>
       <c r="S23" s="68">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:19" s="5" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="T23" s="84">
+        <v>0.65</v>
+      </c>
+      <c r="U23" s="96">
+        <f t="shared" si="5"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" s="5" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20">
         <v>6</v>
       </c>
@@ -2057,20 +2135,29 @@
         <f t="shared" si="2"/>
         <v>2.0999999999999996</v>
       </c>
-      <c r="P24" s="85">
+      <c r="P24" s="84">
         <v>0.2</v>
       </c>
       <c r="Q24" s="69">
         <f t="shared" si="3"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="R24" s="85"/>
-      <c r="S24" s="68">
+      <c r="R24" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="S24" s="97">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" s="5" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="T24" s="84">
+        <v>0.4</v>
+      </c>
+      <c r="U24" s="71">
+        <f t="shared" si="5"/>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" s="5" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="20">
         <v>7</v>
       </c>
@@ -2116,20 +2203,29 @@
         <f t="shared" si="2"/>
         <v>3.15</v>
       </c>
-      <c r="P25" s="85">
+      <c r="P25" s="84">
         <v>0.45</v>
       </c>
       <c r="Q25" s="72">
         <f t="shared" si="3"/>
         <v>3.15</v>
       </c>
-      <c r="R25" s="85"/>
-      <c r="S25" s="68">
+      <c r="R25" s="84">
+        <v>0.3</v>
+      </c>
+      <c r="S25" s="70">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" s="5" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.1</v>
+      </c>
+      <c r="T25" s="84">
+        <v>0.45</v>
+      </c>
+      <c r="U25" s="72">
+        <f t="shared" si="5"/>
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" s="5" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="20">
         <v>8</v>
       </c>
@@ -2175,20 +2271,29 @@
         <f>I26*N26</f>
         <v>3.75</v>
       </c>
-      <c r="P26" s="85">
+      <c r="P26" s="84">
         <v>0.75</v>
       </c>
       <c r="Q26" s="74">
         <f t="shared" si="3"/>
         <v>3.75</v>
       </c>
-      <c r="R26" s="85"/>
-      <c r="S26" s="68">
+      <c r="R26" s="84">
+        <v>0.4</v>
+      </c>
+      <c r="S26" s="70">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" s="5" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="T26" s="84">
+        <v>0.9</v>
+      </c>
+      <c r="U26" s="78">
+        <f t="shared" si="5"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" s="5" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20">
         <v>9</v>
       </c>
@@ -2234,20 +2339,29 @@
         <f>I27*N27</f>
         <v>2.4</v>
       </c>
-      <c r="P27" s="85">
+      <c r="P27" s="84">
         <v>0.3</v>
       </c>
       <c r="Q27" s="69">
         <f t="shared" si="3"/>
         <v>1.2</v>
       </c>
-      <c r="R27" s="85"/>
-      <c r="S27" s="68">
+      <c r="R27" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="S27" s="67">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" s="5" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="T27" s="84">
+        <v>0.1</v>
+      </c>
+      <c r="U27" s="67">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" s="5" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="20">
         <v>10</v>
       </c>
@@ -2270,43 +2384,52 @@
         <v>62</v>
       </c>
       <c r="I28" s="59">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J28" s="63">
-        <v>0.7</v>
-      </c>
-      <c r="K28" s="77">
-        <f t="shared" si="0"/>
-        <v>4.1999999999999993</v>
+        <v>0.5</v>
+      </c>
+      <c r="K28" s="76">
+        <f>I28*J28</f>
+        <v>4</v>
       </c>
       <c r="L28" s="63">
-        <v>0.4</v>
-      </c>
-      <c r="M28" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="M28" s="76">
         <f t="shared" si="1"/>
-        <v>2.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="N28" s="63">
-        <v>0.3</v>
-      </c>
-      <c r="O28" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="O28" s="76">
         <f t="shared" si="2"/>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="P28" s="85">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="86">
+        <v>4</v>
+      </c>
+      <c r="P28" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="Q28" s="76">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="85"/>
-      <c r="S28" s="68">
+        <v>4</v>
+      </c>
+      <c r="R28" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="S28" s="76">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:19" s="5" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="T28" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="U28" s="76">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" s="5" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="20">
         <v>11</v>
       </c>
@@ -2331,9 +2454,9 @@
       <c r="I29" s="59">
         <v>7</v>
       </c>
-      <c r="J29" s="95"/>
+      <c r="J29" s="98"/>
       <c r="K29" s="64"/>
-      <c r="L29" s="95"/>
+      <c r="L29" s="88"/>
       <c r="M29" s="64"/>
       <c r="N29" s="63">
         <v>0.1</v>
@@ -2342,20 +2465,29 @@
         <f t="shared" si="2"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="P29" s="85">
+      <c r="P29" s="84">
         <v>0.5</v>
       </c>
       <c r="Q29" s="73">
         <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
-      <c r="R29" s="85"/>
-      <c r="S29" s="68">
+      <c r="R29" s="84">
+        <v>0.6</v>
+      </c>
+      <c r="S29" s="77">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" s="5" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.2</v>
+      </c>
+      <c r="T29" s="84">
+        <v>0.9</v>
+      </c>
+      <c r="U29" s="81">
+        <f t="shared" si="5"/>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" s="5" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="47">
         <v>12</v>
       </c>
@@ -2380,9 +2512,9 @@
       <c r="I30" s="60">
         <v>5</v>
       </c>
-      <c r="J30" s="95"/>
+      <c r="J30" s="88"/>
       <c r="K30" s="64"/>
-      <c r="L30" s="95"/>
+      <c r="L30" s="88"/>
       <c r="M30" s="64"/>
       <c r="N30" s="63">
         <v>0.05</v>
@@ -2391,20 +2523,29 @@
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="P30" s="85">
+      <c r="P30" s="84">
         <v>0.05</v>
       </c>
       <c r="Q30" s="65">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
-      <c r="R30" s="85"/>
-      <c r="S30" s="68">
+      <c r="R30" s="84">
+        <v>0.05</v>
+      </c>
+      <c r="S30" s="65">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+      <c r="T30" s="84">
+        <v>0.05</v>
+      </c>
+      <c r="U30" s="65">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="53">
         <v>13</v>
       </c>
@@ -2429,26 +2570,35 @@
       <c r="I31" s="61">
         <v>6</v>
       </c>
-      <c r="J31" s="95"/>
+      <c r="J31" s="88"/>
       <c r="K31" s="64"/>
-      <c r="L31" s="96"/>
+      <c r="L31" s="89"/>
       <c r="M31" s="64"/>
-      <c r="N31" s="96"/>
+      <c r="N31" s="89"/>
       <c r="O31" s="64"/>
-      <c r="P31" s="85">
+      <c r="P31" s="84">
         <v>0.75</v>
       </c>
-      <c r="Q31" s="79">
+      <c r="Q31" s="77">
         <f>I31*P31</f>
         <v>4.5</v>
       </c>
-      <c r="R31" s="85"/>
-      <c r="S31" s="84">
+      <c r="R31" s="84">
+        <v>0.75</v>
+      </c>
+      <c r="S31" s="77">
         <f>I31*R31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+      <c r="T31" s="84">
+        <v>0.6</v>
+      </c>
+      <c r="U31" s="73">
+        <f>$I31*T31</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="53">
         <v>14</v>
       </c>
@@ -2473,19 +2623,37 @@
       <c r="I32" s="61">
         <v>3</v>
       </c>
-      <c r="J32" s="96"/>
+      <c r="J32" s="89"/>
       <c r="K32" s="64"/>
-      <c r="L32" s="96"/>
+      <c r="L32" s="89"/>
       <c r="M32" s="64"/>
-      <c r="N32" s="96"/>
+      <c r="N32" s="89"/>
       <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="64"/>
+      <c r="P32" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="Q32" s="77">
+        <f>$I32*P32</f>
+        <v>1.5</v>
+      </c>
+      <c r="R32" s="84">
+        <v>0</v>
+      </c>
+      <c r="S32" s="85">
+        <f>$I32*R32</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="84">
+        <v>0</v>
+      </c>
+      <c r="U32" s="85">
+        <f>$I32*T32</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="T17:U17"/>
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="J17:K17"/>
@@ -2494,6 +2662,7 @@
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="D3:E3"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
